--- a/input 11182024 test portfolio.xlsx
+++ b/input 11182024 test portfolio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="372" windowWidth="22692" windowHeight="7428"/>
+    <workbookView xWindow="288" yWindow="372" windowWidth="22692" windowHeight="7428" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="historical_data" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>mean_returns</t>
-  </si>
-  <si>
-    <t>New Deal</t>
   </si>
   <si>
     <t>Deal_1</t>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Deal_10</t>
+  </si>
+  <si>
+    <t>New_Deal</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -416,34 +416,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2610,7 +2610,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.15</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>-0.2</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>-0.5</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>-0.7</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.35</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>-0.6</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0.15</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.18</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.25</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.14000000000000001</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.1</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.15</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.22</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.19</v>
@@ -2805,7 +2805,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0.12</v>
@@ -2846,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
